--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H2">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I2">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J2">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N2">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q2">
-        <v>31.23853967491722</v>
+        <v>102.9038579454919</v>
       </c>
       <c r="R2">
-        <v>281.146857074255</v>
+        <v>926.1347215094271</v>
       </c>
       <c r="S2">
-        <v>0.1225047671447251</v>
+        <v>0.2753640547400232</v>
       </c>
       <c r="T2">
-        <v>0.1225047671447251</v>
+        <v>0.2753640547400232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H3">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I3">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J3">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P3">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q3">
-        <v>11.89856558084723</v>
+        <v>41.44992138796945</v>
       </c>
       <c r="R3">
-        <v>107.087090227625</v>
+        <v>373.0492924917251</v>
       </c>
       <c r="S3">
-        <v>0.04666130430572992</v>
+        <v>0.1109173032957848</v>
       </c>
       <c r="T3">
-        <v>0.04666130430572992</v>
+        <v>0.1109173032957848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H4">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I4">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J4">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q4">
-        <v>9.660514090422224</v>
+        <v>33.65343048240445</v>
       </c>
       <c r="R4">
-        <v>86.94462681380001</v>
+        <v>302.88087434164</v>
       </c>
       <c r="S4">
-        <v>0.03788458236079969</v>
+        <v>0.09005439891724056</v>
       </c>
       <c r="T4">
-        <v>0.03788458236079969</v>
+        <v>0.09005439891724057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>11.659381</v>
       </c>
       <c r="I5">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J5">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N5">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q5">
-        <v>104.2769085723992</v>
+        <v>98.60523636760544</v>
       </c>
       <c r="R5">
-        <v>938.492177151593</v>
+        <v>887.447127308449</v>
       </c>
       <c r="S5">
-        <v>0.4089313564644856</v>
+        <v>0.2638612219880503</v>
       </c>
       <c r="T5">
-        <v>0.4089313564644857</v>
+        <v>0.2638612219880503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.659381</v>
       </c>
       <c r="I6">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J6">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P6">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q6">
         <v>39.71842628139723</v>
@@ -818,10 +818,10 @@
         <v>357.465836532575</v>
       </c>
       <c r="S6">
-        <v>0.1557594117264187</v>
+        <v>0.1062839346075011</v>
       </c>
       <c r="T6">
-        <v>0.1557594117264187</v>
+        <v>0.1062839346075011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.659381</v>
       </c>
       <c r="I7">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J7">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q7">
         <v>32.24761960874222</v>
@@ -880,10 +880,10 @@
         <v>290.22857647868</v>
       </c>
       <c r="S7">
-        <v>0.1264619656440808</v>
+        <v>0.08629254012887233</v>
       </c>
       <c r="T7">
-        <v>0.1264619656440808</v>
+        <v>0.08629254012887234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H8">
         <v>1.717255</v>
       </c>
       <c r="I8">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J8">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N8">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q8">
-        <v>15.35845193072389</v>
+        <v>14.52309819693278</v>
       </c>
       <c r="R8">
-        <v>138.226067376515</v>
+        <v>130.707883772395</v>
       </c>
       <c r="S8">
-        <v>0.06022956249096073</v>
+        <v>0.03886286954385394</v>
       </c>
       <c r="T8">
-        <v>0.06022956249096074</v>
+        <v>0.03886286954385394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H9">
         <v>1.717255</v>
       </c>
       <c r="I9">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J9">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P9">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q9">
-        <v>5.849938871013888</v>
+        <v>5.84993887101389</v>
       </c>
       <c r="R9">
         <v>52.649449839125</v>
       </c>
       <c r="S9">
-        <v>0.02294106596089887</v>
+        <v>0.01565405728866775</v>
       </c>
       <c r="T9">
-        <v>0.02294106596089887</v>
+        <v>0.01565405728866774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H10">
         <v>1.717255</v>
       </c>
       <c r="I10">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J10">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q10">
-        <v>4.749599143488888</v>
+        <v>4.749599143488889</v>
       </c>
       <c r="R10">
-        <v>42.74639229139999</v>
+        <v>42.7463922914</v>
       </c>
       <c r="S10">
-        <v>0.01862598390190062</v>
+        <v>0.01270961949000609</v>
       </c>
       <c r="T10">
-        <v>0.01862598390190062</v>
+        <v>0.01270961949000609</v>
       </c>
     </row>
   </sheetData>
